--- a/V0808.xlsx
+++ b/V0808.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F78C997-4F47-490E-AA39-EEC372569781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7117F2-2839-43A1-8C45-69650EC77028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC454D4F-1ECC-4374-8341-5699BFCBEAB9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1942</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2031,7 +2031,7 @@
   <dimension ref="A1:R1942"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2:M1942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6408,7 +6408,7 @@
         <v>21</v>
       </c>
       <c r="M104" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R104" s="8"/>
     </row>
@@ -8676,7 +8676,7 @@
         <v>21</v>
       </c>
       <c r="M158" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="R158" s="8"/>
     </row>
@@ -10866,7 +10866,7 @@
         <v>15</v>
       </c>
       <c r="M211" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -10907,7 +10907,7 @@
         <v>15</v>
       </c>
       <c r="M212" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -12465,7 +12465,7 @@
         <v>15</v>
       </c>
       <c r="M250" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -27348,7 +27348,7 @@
         <v>21</v>
       </c>
       <c r="M613" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.25">
@@ -36368,7 +36368,7 @@
         <v>29</v>
       </c>
       <c r="M833" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="834" spans="1:13" x14ac:dyDescent="0.25">
@@ -37188,7 +37188,7 @@
         <v>34</v>
       </c>
       <c r="M853" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="854" spans="1:13" x14ac:dyDescent="0.25">
@@ -42313,7 +42313,7 @@
         <v>21</v>
       </c>
       <c r="M978" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="979" spans="1:13" x14ac:dyDescent="0.25">
@@ -50636,7 +50636,7 @@
         <v>34</v>
       </c>
       <c r="M1181" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1182" spans="1:13" x14ac:dyDescent="0.25">
@@ -53957,7 +53957,7 @@
         <v>15</v>
       </c>
       <c r="M1262" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1263" spans="1:13" x14ac:dyDescent="0.25">
@@ -72202,7 +72202,7 @@
         <v>52</v>
       </c>
       <c r="M1707" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1708" spans="1:13" x14ac:dyDescent="0.25">
@@ -74744,7 +74744,7 @@
         <v>21</v>
       </c>
       <c r="M1769" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1770" spans="1:13" x14ac:dyDescent="0.25">
@@ -81841,7 +81841,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1780" xr:uid="{C972FBD1-D658-4323-913B-DFDA93DAE9EB}"/>
+  <autoFilter ref="A1:M1942" xr:uid="{C972FBD1-D658-4323-913B-DFDA93DAE9EB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/V0808.xlsx
+++ b/V0808.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4D475-923D-41C5-B722-5460AA2C023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEFC30-17BF-401D-9F06-38019E6DE8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC454D4F-1ECC-4374-8341-5699BFCBEAB9}"/>
   </bookViews>
@@ -1564,9 +1564,6 @@
     <t>Cândido Manuel Carvalho Rodrigues</t>
   </si>
   <si>
-    <t>Paulo Costa</t>
-  </si>
-  <si>
     <t>Manuel Cândido Gonçalves Rodrigues</t>
   </si>
   <si>
@@ -1631,6 +1628,9 @@
   </si>
   <si>
     <t>SAUDADE S.A.R.L.</t>
+  </si>
+  <si>
+    <t>Elisabete Marques</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:R1763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M1705"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2652,7 @@
         <v>89.52</v>
       </c>
       <c r="L15" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
         <v>395</v>
@@ -2693,7 +2693,7 @@
         <v>107.10000000000001</v>
       </c>
       <c r="L16" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M16" t="s">
         <v>395</v>
@@ -2735,7 +2735,7 @@
         <v>109.26</v>
       </c>
       <c r="L17" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M17" t="s">
         <v>395</v>
@@ -2777,7 +2777,7 @@
         <v>122.31</v>
       </c>
       <c r="L18" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
         <v>394</v>
@@ -5046,7 +5046,7 @@
         <v>-0.84</v>
       </c>
       <c r="L72" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s">
         <v>394</v>
@@ -5088,7 +5088,7 @@
         <v>201.26</v>
       </c>
       <c r="L73" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s">
         <v>394</v>
@@ -5130,7 +5130,7 @@
         <v>298.93</v>
       </c>
       <c r="L74" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M74" t="s">
         <v>394</v>
@@ -5172,7 +5172,7 @@
         <v>780.63</v>
       </c>
       <c r="L75" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M75" t="s">
         <v>394</v>
@@ -5214,7 +5214,7 @@
         <v>246.48000000000002</v>
       </c>
       <c r="L76" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M76" t="s">
         <v>394</v>
@@ -5256,7 +5256,7 @@
         <v>-48.19</v>
       </c>
       <c r="L77" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M77" t="s">
         <v>394</v>
@@ -5298,7 +5298,7 @@
         <v>137.65</v>
       </c>
       <c r="L78" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M78" t="s">
         <v>394</v>
@@ -5340,7 +5340,7 @@
         <v>239.03</v>
       </c>
       <c r="L79" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M79" t="s">
         <v>394</v>
@@ -5382,7 +5382,7 @@
         <v>68.88</v>
       </c>
       <c r="L80" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M80" t="s">
         <v>394</v>
@@ -5424,7 +5424,7 @@
         <v>152.72</v>
       </c>
       <c r="L81" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M81" t="s">
         <v>394</v>
@@ -5466,7 +5466,7 @@
         <v>519.91999999999996</v>
       </c>
       <c r="L82" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M82" t="s">
         <v>396</v>
@@ -5508,7 +5508,7 @@
         <v>87.67</v>
       </c>
       <c r="L83" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M83" t="s">
         <v>400</v>
@@ -5688,7 +5688,7 @@
         <v>211110327</v>
       </c>
       <c r="B88" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -5802,7 +5802,7 @@
         <v>-2.87</v>
       </c>
       <c r="L90" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M90" t="s">
         <v>399</v>
@@ -5844,7 +5844,7 @@
         <v>-10.09</v>
       </c>
       <c r="L91" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M91" t="s">
         <v>399</v>
@@ -5886,7 +5886,7 @@
         <v>548.45000000000005</v>
       </c>
       <c r="L92" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M92" t="s">
         <v>399</v>
@@ -5928,7 +5928,7 @@
         <v>558.34</v>
       </c>
       <c r="L93" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M93" t="s">
         <v>399</v>
@@ -5970,7 +5970,7 @@
         <v>212.67000000000002</v>
       </c>
       <c r="L94" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M94" t="s">
         <v>399</v>
@@ -6012,7 +6012,7 @@
         <v>578.64</v>
       </c>
       <c r="L95" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M95" t="s">
         <v>394</v>
@@ -6054,7 +6054,7 @@
         <v>476.82</v>
       </c>
       <c r="L96" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M96" t="s">
         <v>395</v>
@@ -6096,7 +6096,7 @@
         <v>356.84000000000003</v>
       </c>
       <c r="L97" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M97" t="s">
         <v>395</v>
@@ -6138,7 +6138,7 @@
         <v>489.72</v>
       </c>
       <c r="L98" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M98" t="s">
         <v>395</v>
@@ -6180,7 +6180,7 @@
         <v>265.88</v>
       </c>
       <c r="L99" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M99" t="s">
         <v>395</v>
@@ -6222,7 +6222,7 @@
         <v>556.11</v>
       </c>
       <c r="L100" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M100" t="s">
         <v>395</v>
@@ -6264,7 +6264,7 @@
         <v>806.80000000000007</v>
       </c>
       <c r="L101" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M101" t="s">
         <v>395</v>
@@ -6306,7 +6306,7 @@
         <v>625.95000000000005</v>
       </c>
       <c r="L102" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M102" t="s">
         <v>395</v>
@@ -6348,7 +6348,7 @@
         <v>578.58000000000004</v>
       </c>
       <c r="L103" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M103" t="s">
         <v>395</v>
@@ -6390,7 +6390,7 @@
         <v>474.01</v>
       </c>
       <c r="L104" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M104" t="s">
         <v>395</v>
@@ -6432,7 +6432,7 @@
         <v>479.96000000000004</v>
       </c>
       <c r="L105" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M105" t="s">
         <v>397</v>
@@ -6474,7 +6474,7 @@
         <v>611.29</v>
       </c>
       <c r="L106" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M106" t="s">
         <v>397</v>
@@ -6516,7 +6516,7 @@
         <v>980.96</v>
       </c>
       <c r="L107" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M107" t="s">
         <v>394</v>
@@ -6558,7 +6558,7 @@
         <v>127.61</v>
       </c>
       <c r="L108" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M108" t="s">
         <v>394</v>
@@ -6600,7 +6600,7 @@
         <v>83.3</v>
       </c>
       <c r="L109" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M109" t="s">
         <v>394</v>
@@ -6642,7 +6642,7 @@
         <v>-20.010000000000002</v>
       </c>
       <c r="L110" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M110" t="s">
         <v>394</v>
@@ -6684,7 +6684,7 @@
         <v>159.21</v>
       </c>
       <c r="L111" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M111" t="s">
         <v>394</v>
@@ -7944,7 +7944,7 @@
         <v>200.74</v>
       </c>
       <c r="L141" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M141" t="s">
         <v>399</v>
@@ -7986,7 +7986,7 @@
         <v>54.58</v>
       </c>
       <c r="L142" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M142" t="s">
         <v>399</v>
@@ -8028,7 +8028,7 @@
         <v>251.39000000000001</v>
       </c>
       <c r="L143" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M143" t="s">
         <v>399</v>
@@ -8070,7 +8070,7 @@
         <v>55.120000000000005</v>
       </c>
       <c r="L144" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M144" t="s">
         <v>395</v>
@@ -8112,7 +8112,7 @@
         <v>110.74000000000001</v>
       </c>
       <c r="L145" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M145" t="s">
         <v>395</v>
@@ -8154,7 +8154,7 @@
         <v>53.26</v>
       </c>
       <c r="L146" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M146" t="s">
         <v>395</v>
@@ -8952,7 +8952,7 @@
         <v>804.67000000000007</v>
       </c>
       <c r="L165" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M165" t="s">
         <v>394</v>
@@ -8994,7 +8994,7 @@
         <v>775.22</v>
       </c>
       <c r="L166" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M166" t="s">
         <v>394</v>
@@ -9036,7 +9036,7 @@
         <v>62.72</v>
       </c>
       <c r="L167" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M167" t="s">
         <v>394</v>
@@ -9078,7 +9078,7 @@
         <v>1196.3800000000001</v>
       </c>
       <c r="L168" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M168" t="s">
         <v>394</v>
@@ -9120,7 +9120,7 @@
         <v>1034.8600000000001</v>
       </c>
       <c r="L169" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M169" t="s">
         <v>394</v>
@@ -9752,7 +9752,7 @@
         <v>211110629</v>
       </c>
       <c r="B185" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -14415,7 +14415,7 @@
         <v>-70.86</v>
       </c>
       <c r="L298" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M298" t="s">
         <v>396</v>
@@ -14456,7 +14456,7 @@
         <v>305.11</v>
       </c>
       <c r="L299" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M299" t="s">
         <v>396</v>
@@ -14672,7 +14672,7 @@
         <v>211111017</v>
       </c>
       <c r="B305" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C305" t="s">
         <v>16</v>
@@ -16014,7 +16014,7 @@
         <v>251.39000000000001</v>
       </c>
       <c r="L337" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M337" t="s">
         <v>394</v>
@@ -16055,7 +16055,7 @@
         <v>235.68</v>
       </c>
       <c r="L338" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M338" t="s">
         <v>394</v>
@@ -16096,7 +16096,7 @@
         <v>185.95000000000002</v>
       </c>
       <c r="L339" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M339" t="s">
         <v>394</v>
@@ -16137,7 +16137,7 @@
         <v>114.62</v>
       </c>
       <c r="L340" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M340" t="s">
         <v>394</v>
@@ -16752,7 +16752,7 @@
         <v>44.94</v>
       </c>
       <c r="L355" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M355" t="s">
         <v>394</v>
@@ -16793,7 +16793,7 @@
         <v>107.93</v>
       </c>
       <c r="L356" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M356" t="s">
         <v>394</v>
@@ -16834,7 +16834,7 @@
         <v>242.85</v>
       </c>
       <c r="L357" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M357" t="s">
         <v>394</v>
@@ -16875,7 +16875,7 @@
         <v>165.18</v>
       </c>
       <c r="L358" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M358" t="s">
         <v>394</v>
@@ -20617,7 +20617,7 @@
         <v>211111320</v>
       </c>
       <c r="B450" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C450" t="s">
         <v>16</v>
@@ -21795,7 +21795,7 @@
         <v>601.37</v>
       </c>
       <c r="L478" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M478" t="s">
         <v>395</v>
@@ -21836,7 +21836,7 @@
         <v>350.65000000000003</v>
       </c>
       <c r="L479" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M479" t="s">
         <v>395</v>
@@ -21877,7 +21877,7 @@
         <v>139.30000000000001</v>
       </c>
       <c r="L480" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M480" t="s">
         <v>395</v>
@@ -21918,7 +21918,7 @@
         <v>421.36</v>
       </c>
       <c r="L481" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M481" t="s">
         <v>395</v>
@@ -21959,7 +21959,7 @@
         <v>223.47</v>
       </c>
       <c r="L482" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M482" t="s">
         <v>397</v>
@@ -22000,7 +22000,7 @@
         <v>370</v>
       </c>
       <c r="L483" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M483" t="s">
         <v>394</v>
@@ -22041,7 +22041,7 @@
         <v>119.65</v>
       </c>
       <c r="L484" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M484" t="s">
         <v>394</v>
@@ -22082,7 +22082,7 @@
         <v>301.61</v>
       </c>
       <c r="L485" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M485" t="s">
         <v>394</v>
@@ -22123,7 +22123,7 @@
         <v>377.25</v>
       </c>
       <c r="L486" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M486" t="s">
         <v>394</v>
@@ -22164,7 +22164,7 @@
         <v>-7.36</v>
       </c>
       <c r="L487" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M487" t="s">
         <v>394</v>
@@ -22205,7 +22205,7 @@
         <v>326.53000000000003</v>
       </c>
       <c r="L488" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M488" t="s">
         <v>394</v>
@@ -22626,7 +22626,7 @@
         <v>211111438</v>
       </c>
       <c r="B499" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C499" t="s">
         <v>16</v>
@@ -22667,7 +22667,7 @@
         <v>211111462</v>
       </c>
       <c r="B500" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C500" t="s">
         <v>405</v>
@@ -22708,7 +22708,7 @@
         <v>211111462</v>
       </c>
       <c r="B501" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C501" t="s">
         <v>16</v>
@@ -22779,7 +22779,7 @@
         <v>48.22</v>
       </c>
       <c r="L502" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M502" t="s">
         <v>394</v>
@@ -22820,7 +22820,7 @@
         <v>57.38</v>
       </c>
       <c r="L503" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M503" t="s">
         <v>394</v>
@@ -22861,7 +22861,7 @@
         <v>98.990000000000009</v>
       </c>
       <c r="L504" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M504" t="s">
         <v>394</v>
@@ -22902,7 +22902,7 @@
         <v>77.16</v>
       </c>
       <c r="L505" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M505" t="s">
         <v>394</v>
@@ -23189,7 +23189,7 @@
         <v>165.18</v>
       </c>
       <c r="L512" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M512" t="s">
         <v>394</v>
@@ -23230,7 +23230,7 @@
         <v>89.88</v>
       </c>
       <c r="L513" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M513" t="s">
         <v>394</v>
@@ -23271,7 +23271,7 @@
         <v>272.86</v>
       </c>
       <c r="L514" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M514" t="s">
         <v>394</v>
@@ -23312,7 +23312,7 @@
         <v>28.47</v>
       </c>
       <c r="L515" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M515" t="s">
         <v>394</v>
@@ -25772,7 +25772,7 @@
         <v>109.86</v>
       </c>
       <c r="L575" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M575" t="s">
         <v>397</v>
@@ -26018,7 +26018,7 @@
         <v>655.7</v>
       </c>
       <c r="L581" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M581" t="s">
         <v>395</v>
@@ -26059,7 +26059,7 @@
         <v>926.02</v>
       </c>
       <c r="L582" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M582" t="s">
         <v>394</v>
@@ -26100,7 +26100,7 @@
         <v>488.15000000000003</v>
       </c>
       <c r="L583" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M583" t="s">
         <v>394</v>
@@ -26141,7 +26141,7 @@
         <v>167.08</v>
       </c>
       <c r="L584" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M584" t="s">
         <v>394</v>
@@ -26182,7 +26182,7 @@
         <v>95.100000000000009</v>
       </c>
       <c r="L585" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M585" t="s">
         <v>394</v>
@@ -26223,7 +26223,7 @@
         <v>228.13</v>
       </c>
       <c r="L586" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M586" t="s">
         <v>394</v>
@@ -26264,7 +26264,7 @@
         <v>611.57000000000005</v>
       </c>
       <c r="L587" t="s">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="M587" t="s">
         <v>394</v>
@@ -26972,7 +26972,7 @@
         <v>211111673</v>
       </c>
       <c r="B605" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C605" t="s">
         <v>16</v>
@@ -27002,7 +27002,7 @@
         <v>26.330000000000002</v>
       </c>
       <c r="L605" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M605" t="s">
         <v>394</v>
@@ -27013,7 +27013,7 @@
         <v>211111673</v>
       </c>
       <c r="B606" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C606" t="s">
         <v>16</v>
@@ -27043,7 +27043,7 @@
         <v>255.94</v>
       </c>
       <c r="L606" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M606" t="s">
         <v>394</v>
@@ -34382,7 +34382,7 @@
         <v>833.06000000000006</v>
       </c>
       <c r="L785" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M785" t="s">
         <v>399</v>
@@ -34423,7 +34423,7 @@
         <v>1056.32</v>
       </c>
       <c r="L786" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M786" t="s">
         <v>399</v>
@@ -34464,7 +34464,7 @@
         <v>210.29</v>
       </c>
       <c r="L787" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M787" t="s">
         <v>399</v>
@@ -34505,7 +34505,7 @@
         <v>-507.94</v>
       </c>
       <c r="L788" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M788" t="s">
         <v>399</v>
@@ -34546,7 +34546,7 @@
         <v>540.54999999999995</v>
       </c>
       <c r="L789" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M789" t="s">
         <v>399</v>
@@ -34587,7 +34587,7 @@
         <v>165.06</v>
       </c>
       <c r="L790" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M790" t="s">
         <v>399</v>
@@ -34628,7 +34628,7 @@
         <v>110.59</v>
       </c>
       <c r="L791" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M791" t="s">
         <v>399</v>
@@ -34669,7 +34669,7 @@
         <v>439.56</v>
       </c>
       <c r="L792" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M792" t="s">
         <v>399</v>
@@ -34710,7 +34710,7 @@
         <v>49.69</v>
       </c>
       <c r="L793" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M793" t="s">
         <v>399</v>
@@ -34751,7 +34751,7 @@
         <v>481.88</v>
       </c>
       <c r="L794" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M794" t="s">
         <v>399</v>
@@ -34792,7 +34792,7 @@
         <v>-359.47</v>
       </c>
       <c r="L795" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M795" t="s">
         <v>399</v>
@@ -34833,7 +34833,7 @@
         <v>-11.61</v>
       </c>
       <c r="L796" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M796" t="s">
         <v>399</v>
@@ -34874,7 +34874,7 @@
         <v>134.38</v>
       </c>
       <c r="L797" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M797" t="s">
         <v>399</v>
@@ -34915,7 +34915,7 @@
         <v>727.73</v>
       </c>
       <c r="L798" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M798" t="s">
         <v>399</v>
@@ -34956,7 +34956,7 @@
         <v>-15.39</v>
       </c>
       <c r="L799" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M799" t="s">
         <v>395</v>
@@ -34997,7 +34997,7 @@
         <v>741.32</v>
       </c>
       <c r="L800" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M800" t="s">
         <v>395</v>
@@ -35038,7 +35038,7 @@
         <v>49.82</v>
       </c>
       <c r="L801" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M801" t="s">
         <v>395</v>
@@ -35079,7 +35079,7 @@
         <v>699.11</v>
       </c>
       <c r="L802" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M802" t="s">
         <v>395</v>
@@ -35120,7 +35120,7 @@
         <v>179.12</v>
       </c>
       <c r="L803" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M803" t="s">
         <v>395</v>
@@ -35161,7 +35161,7 @@
         <v>81.33</v>
       </c>
       <c r="L804" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M804" t="s">
         <v>395</v>
@@ -35202,7 +35202,7 @@
         <v>119.29</v>
       </c>
       <c r="L805" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M805" t="s">
         <v>395</v>
@@ -35243,7 +35243,7 @@
         <v>156.55000000000001</v>
       </c>
       <c r="L806" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M806" t="s">
         <v>395</v>
@@ -35284,7 +35284,7 @@
         <v>242.01</v>
       </c>
       <c r="L807" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M807" t="s">
         <v>395</v>
@@ -35325,7 +35325,7 @@
         <v>101</v>
       </c>
       <c r="L808" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M808" t="s">
         <v>395</v>
@@ -35366,7 +35366,7 @@
         <v>153.34</v>
       </c>
       <c r="L809" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M809" t="s">
         <v>397</v>
@@ -35407,7 +35407,7 @@
         <v>-699.11</v>
       </c>
       <c r="L810" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M810" t="s">
         <v>394</v>
@@ -35448,7 +35448,7 @@
         <v>399.14</v>
       </c>
       <c r="L811" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M811" t="s">
         <v>394</v>
@@ -36596,7 +36596,7 @@
         <v>46.86</v>
       </c>
       <c r="L839" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M839" t="s">
         <v>395</v>
@@ -36637,7 +36637,7 @@
         <v>139.79</v>
       </c>
       <c r="L840" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M840" t="s">
         <v>395</v>
@@ -38616,7 +38616,7 @@
         <v>211111989</v>
       </c>
       <c r="B889" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C889" t="s">
         <v>16</v>
@@ -38657,7 +38657,7 @@
         <v>211111989</v>
       </c>
       <c r="B890" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C890" t="s">
         <v>16</v>
@@ -40245,7 +40245,7 @@
         <v>482.92</v>
       </c>
       <c r="L928" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M928" t="s">
         <v>395</v>
@@ -40286,7 +40286,7 @@
         <v>412.48</v>
       </c>
       <c r="L929" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M929" t="s">
         <v>395</v>
@@ -40327,7 +40327,7 @@
         <v>809.44</v>
       </c>
       <c r="L930" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M930" t="s">
         <v>395</v>
@@ -40368,7 +40368,7 @@
         <v>274.67</v>
       </c>
       <c r="L931" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M931" t="s">
         <v>397</v>
@@ -40409,7 +40409,7 @@
         <v>412.95</v>
       </c>
       <c r="L932" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M932" t="s">
         <v>394</v>
@@ -40450,7 +40450,7 @@
         <v>275.86</v>
       </c>
       <c r="L933" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M933" t="s">
         <v>394</v>
@@ -40491,7 +40491,7 @@
         <v>498.54</v>
       </c>
       <c r="L934" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M934" t="s">
         <v>394</v>
@@ -40532,7 +40532,7 @@
         <v>505.28000000000003</v>
       </c>
       <c r="L935" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M935" t="s">
         <v>394</v>
@@ -40871,7 +40871,7 @@
         <v>211112009</v>
       </c>
       <c r="B944" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C944" t="s">
         <v>16</v>
@@ -40912,7 +40912,7 @@
         <v>211112009</v>
       </c>
       <c r="B945" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C945" t="s">
         <v>16</v>
@@ -41106,7 +41106,7 @@
         <v>158.86000000000001</v>
       </c>
       <c r="L949" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M949" t="s">
         <v>399</v>
@@ -41639,7 +41639,7 @@
         <v>127.13000000000001</v>
       </c>
       <c r="L962" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M962" t="s">
         <v>395</v>
@@ -41680,7 +41680,7 @@
         <v>43.1</v>
       </c>
       <c r="L963" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M963" t="s">
         <v>395</v>
@@ -41721,7 +41721,7 @@
         <v>158.41</v>
       </c>
       <c r="L964" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M964" t="s">
         <v>395</v>
@@ -41762,7 +41762,7 @@
         <v>236.85</v>
       </c>
       <c r="L965" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M965" t="s">
         <v>397</v>
@@ -41803,7 +41803,7 @@
         <v>46.36</v>
       </c>
       <c r="L966" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M966" t="s">
         <v>394</v>
@@ -41844,7 +41844,7 @@
         <v>88.14</v>
       </c>
       <c r="L967" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M967" t="s">
         <v>394</v>
@@ -41885,7 +41885,7 @@
         <v>44.730000000000004</v>
       </c>
       <c r="L968" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M968" t="s">
         <v>394</v>
@@ -41926,7 +41926,7 @@
         <v>143.91</v>
       </c>
       <c r="L969" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M969" t="s">
         <v>394</v>
@@ -41967,7 +41967,7 @@
         <v>97.18</v>
       </c>
       <c r="L970" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M970" t="s">
         <v>394</v>
@@ -42008,7 +42008,7 @@
         <v>130.99</v>
       </c>
       <c r="L971" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M971" t="s">
         <v>394</v>
@@ -44233,7 +44233,7 @@
         <v>211112075</v>
       </c>
       <c r="B1026" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C1026" t="s">
         <v>16</v>
@@ -44263,7 +44263,7 @@
         <v>78.72</v>
       </c>
       <c r="L1026" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M1026" t="s">
         <v>394</v>
@@ -48497,7 +48497,7 @@
         <v>211112178</v>
       </c>
       <c r="B1130" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1130" t="s">
         <v>16</v>
@@ -49142,7 +49142,7 @@
         <v>201.54</v>
       </c>
       <c r="L1145" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M1145" t="s">
         <v>394</v>
@@ -49194,7 +49194,7 @@
         <v>211112184</v>
       </c>
       <c r="B1147" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1147" t="s">
         <v>16</v>
@@ -49224,7 +49224,7 @@
         <v>136.76</v>
       </c>
       <c r="L1147" t="s">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M1147" t="s">
         <v>397</v>
@@ -55057,7 +55057,7 @@
         <v>211112263</v>
       </c>
       <c r="B1290" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1290" t="s">
         <v>16</v>
@@ -60428,7 +60428,7 @@
         <v>211112297</v>
       </c>
       <c r="B1421" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1421" t="s">
         <v>16</v>
@@ -61524,7 +61524,7 @@
         <v>267.3</v>
       </c>
       <c r="L1447" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M1447" t="s">
         <v>397</v>
@@ -61565,7 +61565,7 @@
         <v>54.28</v>
       </c>
       <c r="L1448" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M1448" t="s">
         <v>394</v>
@@ -61606,7 +61606,7 @@
         <v>108.28</v>
       </c>
       <c r="L1449" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="M1449" t="s">
         <v>394</v>
@@ -62314,7 +62314,7 @@
         <v>211112353</v>
       </c>
       <c r="B1467" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1467" t="s">
         <v>16</v>
@@ -65378,7 +65378,7 @@
         <v>143.14000000000001</v>
       </c>
       <c r="L1541" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1541" t="s">
         <v>395</v>
@@ -65419,7 +65419,7 @@
         <v>54.33</v>
       </c>
       <c r="L1542" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1542" t="s">
         <v>395</v>
@@ -65460,7 +65460,7 @@
         <v>61.940000000000005</v>
       </c>
       <c r="L1543" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1543" t="s">
         <v>395</v>
@@ -65501,7 +65501,7 @@
         <v>-13.91</v>
       </c>
       <c r="L1544" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1544" t="s">
         <v>395</v>
@@ -65542,7 +65542,7 @@
         <v>78.34</v>
       </c>
       <c r="L1545" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1545" t="s">
         <v>397</v>
@@ -65583,7 +65583,7 @@
         <v>112.89</v>
       </c>
       <c r="L1546" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1546" t="s">
         <v>394</v>
@@ -65624,7 +65624,7 @@
         <v>111.07000000000001</v>
       </c>
       <c r="L1547" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1547" t="s">
         <v>394</v>
@@ -65665,7 +65665,7 @@
         <v>43.21</v>
       </c>
       <c r="L1548" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="M1548" t="s">
         <v>394</v>
@@ -67111,7 +67111,7 @@
         <v>211112465</v>
       </c>
       <c r="B1584" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C1584" t="s">
         <v>16</v>
@@ -69284,7 +69284,7 @@
         <v>211112500</v>
       </c>
       <c r="B1637" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C1637" t="s">
         <v>16</v>
@@ -70104,7 +70104,7 @@
         <v>211112525</v>
       </c>
       <c r="B1657" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1657" t="s">
         <v>16</v>
@@ -71088,7 +71088,7 @@
         <v>211112557</v>
       </c>
       <c r="B1681" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C1681" t="s">
         <v>16</v>
@@ -71334,7 +71334,7 @@
         <v>211112561</v>
       </c>
       <c r="B1687" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C1687" t="s">
         <v>16</v>
@@ -71744,7 +71744,7 @@
         <v>211121298</v>
       </c>
       <c r="B1697" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1697" t="s">
         <v>16</v>
@@ -71774,7 +71774,7 @@
         <v>6645.24</v>
       </c>
       <c r="L1697" t="s">
-        <v>133</v>
+        <v>523</v>
       </c>
       <c r="M1697" t="s">
         <v>397</v>
@@ -71785,7 +71785,7 @@
         <v>211121301</v>
       </c>
       <c r="B1698" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1698" t="s">
         <v>405</v>
@@ -71826,7 +71826,7 @@
         <v>211121301</v>
       </c>
       <c r="B1699" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C1699" t="s">
         <v>16</v>

--- a/V0808.xlsx
+++ b/V0808.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742DD566-DD5E-4270-87FA-FBB709FAA7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1FF00-EA9F-4C91-989D-385E68C9320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC454D4F-1ECC-4374-8341-5699BFCBEAB9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1910</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1629</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1992,10 +1992,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1763"/>
+  <dimension ref="A1:R1629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1629"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51909,7 +51909,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1185">
         <v>211112240</v>
       </c>
@@ -51951,7 +51951,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1186">
         <v>211112240</v>
       </c>
@@ -51992,8 +51992,9 @@
       <c r="M1186" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="1187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1186" s="9"/>
+    </row>
+    <row r="1187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1187">
         <v>211112240</v>
       </c>
@@ -52035,7 +52036,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1188">
         <v>211112240</v>
       </c>
@@ -52077,7 +52078,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1189">
         <v>211112240</v>
       </c>
@@ -52119,7 +52120,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="1190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1190">
         <v>211112240</v>
       </c>
@@ -52161,7 +52162,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1191">
         <v>211112240</v>
       </c>
@@ -52203,7 +52204,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1192">
         <v>211112240</v>
       </c>
@@ -52245,7 +52246,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1193">
         <v>211112240</v>
       </c>
@@ -52287,7 +52288,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1194">
         <v>211112240</v>
       </c>
@@ -52329,7 +52330,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1195">
         <v>211112240</v>
       </c>
@@ -52371,7 +52372,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="1196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1196">
         <v>211112240</v>
       </c>
@@ -52413,7 +52414,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1197">
         <v>211112240</v>
       </c>
@@ -52455,7 +52456,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="1198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1198">
         <v>211112240</v>
       </c>
@@ -52497,7 +52498,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1199">
         <v>211112240</v>
       </c>
@@ -52539,7 +52540,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="1200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1200">
         <v>211112240</v>
       </c>
@@ -70599,534 +70600,8 @@
         <v>378</v>
       </c>
     </row>
-    <row r="1630" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D1630" s="7"/>
-      <c r="K1630" s="9"/>
-    </row>
-    <row r="1631" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D1631" s="7"/>
-      <c r="K1631" s="9"/>
-    </row>
-    <row r="1632" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D1632" s="7"/>
-      <c r="K1632" s="9"/>
-    </row>
-    <row r="1633" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1633" s="7"/>
-      <c r="K1633" s="9"/>
-    </row>
-    <row r="1634" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1634" s="7"/>
-      <c r="K1634" s="9"/>
-    </row>
-    <row r="1635" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1635" s="7"/>
-      <c r="K1635" s="9"/>
-    </row>
-    <row r="1636" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1636" s="7"/>
-      <c r="K1636" s="9"/>
-    </row>
-    <row r="1637" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1637" s="7"/>
-      <c r="K1637" s="9"/>
-    </row>
-    <row r="1638" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1638" s="7"/>
-      <c r="K1638" s="9"/>
-    </row>
-    <row r="1639" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1639" s="7"/>
-      <c r="K1639" s="9"/>
-    </row>
-    <row r="1640" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1640" s="7"/>
-      <c r="K1640" s="9"/>
-    </row>
-    <row r="1641" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1641" s="7"/>
-      <c r="K1641" s="9"/>
-    </row>
-    <row r="1642" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1642" s="7"/>
-      <c r="K1642" s="9"/>
-    </row>
-    <row r="1643" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1643" s="7"/>
-      <c r="K1643" s="9"/>
-    </row>
-    <row r="1644" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1644" s="7"/>
-      <c r="K1644" s="9"/>
-    </row>
-    <row r="1645" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1645" s="7"/>
-      <c r="K1645" s="9"/>
-    </row>
-    <row r="1646" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1646" s="7"/>
-      <c r="K1646" s="9"/>
-    </row>
-    <row r="1647" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1647" s="7"/>
-    </row>
-    <row r="1648" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1648" s="7"/>
-      <c r="K1648" s="9"/>
-    </row>
-    <row r="1649" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1649" s="7"/>
-    </row>
-    <row r="1650" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1650" s="7"/>
-      <c r="K1650" s="9"/>
-    </row>
-    <row r="1651" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1651" s="7"/>
-      <c r="K1651" s="9"/>
-    </row>
-    <row r="1652" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1652" s="7"/>
-      <c r="K1652" s="9"/>
-    </row>
-    <row r="1653" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1653" s="7"/>
-    </row>
-    <row r="1654" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1654" s="7"/>
-    </row>
-    <row r="1655" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1655" s="7"/>
-      <c r="K1655" s="9"/>
-    </row>
-    <row r="1656" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1656" s="7"/>
-      <c r="K1656" s="9"/>
-    </row>
-    <row r="1657" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1657" s="7"/>
-      <c r="K1657" s="9"/>
-    </row>
-    <row r="1658" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1658" s="7"/>
-      <c r="K1658" s="9"/>
-    </row>
-    <row r="1659" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1659" s="7"/>
-      <c r="K1659" s="9"/>
-    </row>
-    <row r="1660" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1660" s="7"/>
-      <c r="K1660" s="9"/>
-    </row>
-    <row r="1661" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1661" s="7"/>
-      <c r="K1661" s="9"/>
-    </row>
-    <row r="1662" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1662" s="7"/>
-      <c r="K1662" s="9"/>
-    </row>
-    <row r="1663" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1663" s="7"/>
-      <c r="K1663" s="9"/>
-    </row>
-    <row r="1664" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1664" s="7"/>
-      <c r="K1664" s="9"/>
-    </row>
-    <row r="1665" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1665" s="7"/>
-      <c r="K1665" s="9"/>
-    </row>
-    <row r="1666" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1666" s="7"/>
-    </row>
-    <row r="1667" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1667" s="7"/>
-      <c r="K1667" s="9"/>
-    </row>
-    <row r="1668" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1668" s="7"/>
-      <c r="K1668" s="9"/>
-    </row>
-    <row r="1669" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1669" s="7"/>
-      <c r="K1669" s="9"/>
-    </row>
-    <row r="1670" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1670" s="7"/>
-      <c r="K1670" s="9"/>
-    </row>
-    <row r="1671" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1671" s="7"/>
-      <c r="K1671" s="9"/>
-    </row>
-    <row r="1672" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1672" s="7"/>
-      <c r="K1672" s="9"/>
-    </row>
-    <row r="1673" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1673" s="7"/>
-      <c r="K1673" s="9"/>
-    </row>
-    <row r="1674" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1674" s="7"/>
-      <c r="K1674" s="9"/>
-    </row>
-    <row r="1675" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1675" s="7"/>
-      <c r="K1675" s="9"/>
-    </row>
-    <row r="1676" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1676" s="7"/>
-      <c r="K1676" s="9"/>
-    </row>
-    <row r="1677" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1677" s="7"/>
-      <c r="K1677" s="9"/>
-    </row>
-    <row r="1678" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1678" s="7"/>
-      <c r="K1678" s="9"/>
-    </row>
-    <row r="1679" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1679" s="7"/>
-      <c r="K1679" s="9"/>
-    </row>
-    <row r="1680" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1680" s="7"/>
-      <c r="K1680" s="9"/>
-    </row>
-    <row r="1681" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1681" s="7"/>
-      <c r="K1681" s="9"/>
-    </row>
-    <row r="1682" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1682" s="7"/>
-      <c r="K1682" s="9"/>
-    </row>
-    <row r="1683" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1683" s="7"/>
-      <c r="K1683" s="9"/>
-    </row>
-    <row r="1684" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1684" s="7"/>
-      <c r="K1684" s="9"/>
-    </row>
-    <row r="1685" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1685" s="7"/>
-      <c r="K1685" s="9"/>
-    </row>
-    <row r="1686" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1686" s="7"/>
-      <c r="K1686" s="9"/>
-    </row>
-    <row r="1687" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1687" s="7"/>
-      <c r="K1687" s="9"/>
-    </row>
-    <row r="1688" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1688" s="7"/>
-      <c r="K1688" s="9"/>
-    </row>
-    <row r="1689" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1689" s="7"/>
-      <c r="K1689" s="9"/>
-    </row>
-    <row r="1690" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1690" s="7"/>
-      <c r="K1690" s="9"/>
-    </row>
-    <row r="1691" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1691" s="7"/>
-      <c r="K1691" s="9"/>
-    </row>
-    <row r="1692" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1692" s="7"/>
-    </row>
-    <row r="1693" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1693" s="7"/>
-      <c r="K1693" s="9"/>
-    </row>
-    <row r="1694" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1694" s="7"/>
-      <c r="K1694" s="9"/>
-    </row>
-    <row r="1695" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1695" s="7"/>
-      <c r="K1695" s="9"/>
-    </row>
-    <row r="1696" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1696" s="7"/>
-      <c r="K1696" s="9"/>
-    </row>
-    <row r="1697" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1697" s="7"/>
-      <c r="K1697" s="9"/>
-    </row>
-    <row r="1698" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1698" s="7"/>
-      <c r="K1698" s="9"/>
-    </row>
-    <row r="1699" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1699" s="7"/>
-      <c r="K1699" s="9"/>
-    </row>
-    <row r="1700" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1700" s="7"/>
-      <c r="K1700" s="9"/>
-    </row>
-    <row r="1701" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1701" s="7"/>
-      <c r="K1701" s="9"/>
-    </row>
-    <row r="1702" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1702" s="7"/>
-      <c r="K1702" s="9"/>
-    </row>
-    <row r="1703" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1703" s="7"/>
-      <c r="K1703" s="9"/>
-    </row>
-    <row r="1704" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1704" s="7"/>
-      <c r="K1704" s="9"/>
-    </row>
-    <row r="1705" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1705" s="7"/>
-      <c r="K1705" s="9"/>
-    </row>
-    <row r="1706" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1706" s="7"/>
-      <c r="K1706" s="9"/>
-    </row>
-    <row r="1707" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1707" s="7"/>
-      <c r="K1707" s="9"/>
-    </row>
-    <row r="1708" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1708" s="7"/>
-      <c r="K1708" s="9"/>
-    </row>
-    <row r="1709" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1709" s="7"/>
-      <c r="K1709" s="9"/>
-    </row>
-    <row r="1710" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1710" s="7"/>
-      <c r="K1710" s="9"/>
-    </row>
-    <row r="1711" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1711" s="7"/>
-      <c r="K1711" s="9"/>
-    </row>
-    <row r="1712" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1712" s="7"/>
-      <c r="K1712" s="9"/>
-    </row>
-    <row r="1713" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1713" s="7"/>
-      <c r="K1713" s="9"/>
-    </row>
-    <row r="1714" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1714" s="7"/>
-      <c r="K1714" s="9"/>
-    </row>
-    <row r="1715" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1715" s="7"/>
-      <c r="K1715" s="9"/>
-    </row>
-    <row r="1716" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1716" s="7"/>
-      <c r="K1716" s="9"/>
-    </row>
-    <row r="1717" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1717" s="7"/>
-      <c r="K1717" s="9"/>
-    </row>
-    <row r="1718" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1718" s="7"/>
-      <c r="K1718" s="9"/>
-    </row>
-    <row r="1719" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1719" s="7"/>
-      <c r="K1719" s="9"/>
-    </row>
-    <row r="1720" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1720" s="7"/>
-    </row>
-    <row r="1721" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1721" s="7"/>
-      <c r="K1721" s="9"/>
-    </row>
-    <row r="1722" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1722" s="7"/>
-      <c r="K1722" s="9"/>
-    </row>
-    <row r="1723" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1723" s="7"/>
-      <c r="K1723" s="9"/>
-    </row>
-    <row r="1724" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1724" s="7"/>
-      <c r="K1724" s="9"/>
-    </row>
-    <row r="1725" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1725" s="7"/>
-      <c r="K1725" s="9"/>
-    </row>
-    <row r="1726" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1726" s="7"/>
-      <c r="K1726" s="9"/>
-    </row>
-    <row r="1727" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1727" s="7"/>
-      <c r="K1727" s="9"/>
-    </row>
-    <row r="1728" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1728" s="7"/>
-      <c r="K1728" s="9"/>
-    </row>
-    <row r="1729" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1729" s="7"/>
-    </row>
-    <row r="1730" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1730" s="7"/>
-      <c r="K1730" s="9"/>
-    </row>
-    <row r="1731" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1731" s="7"/>
-      <c r="K1731" s="9"/>
-    </row>
-    <row r="1732" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1732" s="7"/>
-      <c r="K1732" s="9"/>
-    </row>
-    <row r="1733" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1733" s="7"/>
-      <c r="K1733" s="9"/>
-    </row>
-    <row r="1734" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1734" s="7"/>
-      <c r="K1734" s="9"/>
-    </row>
-    <row r="1735" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1735" s="7"/>
-    </row>
-    <row r="1736" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1736" s="7"/>
-      <c r="K1736" s="9"/>
-    </row>
-    <row r="1737" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1737" s="7"/>
-    </row>
-    <row r="1738" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1738" s="7"/>
-      <c r="K1738" s="9"/>
-    </row>
-    <row r="1739" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1739" s="7"/>
-      <c r="K1739" s="9"/>
-    </row>
-    <row r="1740" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1740" s="7"/>
-      <c r="K1740" s="9"/>
-    </row>
-    <row r="1741" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1741" s="7"/>
-      <c r="K1741" s="9"/>
-    </row>
-    <row r="1742" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1742" s="7"/>
-      <c r="K1742" s="9"/>
-    </row>
-    <row r="1743" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1743" s="7"/>
-      <c r="K1743" s="9"/>
-    </row>
-    <row r="1744" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1744" s="7"/>
-      <c r="K1744" s="9"/>
-    </row>
-    <row r="1745" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1745" s="7"/>
-      <c r="K1745" s="9"/>
-    </row>
-    <row r="1746" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1746" s="7"/>
-      <c r="K1746" s="9"/>
-    </row>
-    <row r="1747" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1747" s="7"/>
-      <c r="K1747" s="9"/>
-    </row>
-    <row r="1748" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1748" s="7"/>
-      <c r="K1748" s="9"/>
-    </row>
-    <row r="1749" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1749" s="7"/>
-      <c r="K1749" s="9"/>
-    </row>
-    <row r="1750" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1750" s="7"/>
-      <c r="K1750" s="9"/>
-    </row>
-    <row r="1751" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1751" s="7"/>
-      <c r="K1751" s="9"/>
-    </row>
-    <row r="1752" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1752" s="7"/>
-      <c r="K1752" s="9"/>
-    </row>
-    <row r="1753" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1753" s="7"/>
-      <c r="K1753" s="9"/>
-    </row>
-    <row r="1754" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1754" s="7"/>
-      <c r="K1754" s="9"/>
-    </row>
-    <row r="1755" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1755" s="7"/>
-      <c r="K1755" s="9"/>
-    </row>
-    <row r="1756" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1756" s="7"/>
-      <c r="K1756" s="9"/>
-    </row>
-    <row r="1757" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1757" s="7"/>
-      <c r="K1757" s="9"/>
-    </row>
-    <row r="1758" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1758" s="7"/>
-      <c r="K1758" s="9"/>
-    </row>
-    <row r="1759" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1759" s="7"/>
-      <c r="K1759" s="9"/>
-    </row>
-    <row r="1760" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1760" s="7"/>
-      <c r="K1760" s="9"/>
-    </row>
-    <row r="1761" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1761" s="7"/>
-      <c r="K1761" s="9"/>
-    </row>
-    <row r="1762" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1762" s="7"/>
-      <c r="K1762" s="9"/>
-    </row>
-    <row r="1763" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D1763" s="7"/>
-      <c r="K1763" s="9"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M1910" xr:uid="{C972FBD1-D658-4323-913B-DFDA93DAE9EB}"/>
+  <autoFilter ref="A1:M1629" xr:uid="{C972FBD1-D658-4323-913B-DFDA93DAE9EB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
